--- a/graph.xlsx
+++ b/graph.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="133" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="7">
   <si>
     <t>Minimal Spanning Tree</t>
   </si>
@@ -47,11 +47,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -72,8 +73,15 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -121,7 +129,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -136,6 +144,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -244,7 +256,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -429,7 +441,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -575,7 +587,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -760,7 +772,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -945,7 +957,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -1130,7 +1142,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -1290,11 +1302,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72581596"/>
-        <c:axId val="87364112"/>
+        <c:axId val="22153238"/>
+        <c:axId val="76260713"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72581596"/>
+        <c:axId val="22153238"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,7 +1322,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Nombre de noeud</a:t>
@@ -1330,14 +1342,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87364112"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="76260713"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87364112"/>
+        <c:axId val="76260713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:logBase val="10"/>
@@ -1364,7 +1376,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900">
+                  <a:rPr b="1" sz="900">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Temps en Nanosecondes</a:t>
@@ -1384,8 +1396,1456 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72581596"/>
+        <c:crossAx val="22153238"/>
         <c:crossesAt val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimal Spanning Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Approach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy Approach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Branch And Bound</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic Approach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="37538671"/>
+        <c:axId val="23809805"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="37538671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="23809805"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="23809805"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="37538671"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1424,15 +2884,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>198360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:colOff>279360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>653760</xdr:colOff>
+      <xdr:colOff>733680</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1440,8 +2900,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1014120" y="352080"/>
-        <a:ext cx="8186400" cy="4604400"/>
+        <a:off x="1095120" y="325080"/>
+        <a:ext cx="8185320" cy="4603320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>538920</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8756280" y="392760"/>
+        <a:ext cx="8336160" cy="4688640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1457,6 +2952,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G29"/>
@@ -2072,12 +3568,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2116,161 +3613,667 @@
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="B2" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="B13" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="B14" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>249</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>249</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="B16" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>327</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="B19" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>314</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>124</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="B21" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="B22" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>353</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="B23" s="0" t="n">
+        <v>342</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="B24" s="0" t="n">
+        <v>357</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="B26" s="0" t="n">
+        <v>358</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>433</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>457</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>536</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>582</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>287</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2284,7 +4287,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/graph.xlsx
+++ b/graph.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="133" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="133" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -82,6 +82,11 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -222,7 +227,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1089,28 +1094,28 @@
                   <c:v>109491397</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56150933</c:v>
+                  <c:v>9056150933</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52099124</c:v>
+                  <c:v>3052099124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>871759622</c:v>
+                  <c:v>14871759622</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>603855613</c:v>
+                  <c:v>19603855613</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>780260449</c:v>
+                  <c:v>950780260449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>199788479</c:v>
+                  <c:v>87199788479</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>304700320</c:v>
+                  <c:v>382304700320</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>714766759</c:v>
+                  <c:v>275714766759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,11 +1307,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="22153238"/>
-        <c:axId val="76260713"/>
+        <c:axId val="60306684"/>
+        <c:axId val="7678189"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22153238"/>
+        <c:axId val="60306684"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,14 +1347,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="76260713"/>
+        <c:crossAx val="7678189"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76260713"/>
+        <c:axId val="7678189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:logBase val="10"/>
@@ -1396,7 +1401,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="22153238"/>
+        <c:crossAx val="60306684"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1431,7 +1436,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2790,12 +2795,267 @@
             </c:strRef>
           </c:cat>
         </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="37538671"/>
-        <c:axId val="23809805"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="46834490"/>
+        <c:axId val="96653185"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37538671"/>
+        <c:axId val="46834490"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Nombre de noeuds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="96653185"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96653185"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Coût du chemin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="46834490"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:axId val="9173526"/>
+        <c:axId val="20222966"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="9173526"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,17 +3071,16 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="23809805"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="20222966"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23809805"/>
+        <c:axId val="20222966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2844,8 +3103,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="37538671"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="9173526"/>
+        <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2883,16 +3142,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>279360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>733680</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>293400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2900,7 +3159,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1095120" y="325080"/>
+        <a:off x="7970040" y="899640"/>
         <a:ext cx="8185320" cy="4603320"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2918,16 +3177,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1364760</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>60120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>538920</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2935,8 +3194,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8756280" y="392760"/>
-        <a:ext cx="8336160" cy="4688640"/>
+        <a:off x="2180520" y="392760"/>
+        <a:ext cx="14911920" cy="7231680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2944,6 +3203,75 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>597960</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11225880" y="3831480"/>
+        <a:ext cx="14866560" cy="7242120"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>289440</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2329200" y="848520"/>
+          <a:ext cx="12888360" cy="5763240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2957,8 +3285,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3332,7 +3660,7 @@
         <v>1910</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>56150933</v>
+        <v>9056150933</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>4203965</v>
@@ -3355,7 +3683,7 @@
         <v>2040</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>52099124</v>
+        <v>3052099124</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>4395226</v>
@@ -3378,7 +3706,7 @@
         <v>2441</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>871759622</v>
+        <v>14871759622</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>4444158</v>
@@ -3401,7 +3729,7 @@
         <v>2617</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>603855613</v>
+        <v>19603855613</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>4901589</v>
@@ -3424,7 +3752,7 @@
         <v>7334</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>780260449</v>
+        <v>950780260449</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>4687544</v>
@@ -3447,7 +3775,7 @@
         <v>5722</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>199788479</v>
+        <v>87199788479</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>4910617</v>
@@ -3470,7 +3798,7 @@
         <v>6220</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>304700320</v>
+        <v>382304700320</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>4874108</v>
@@ -3493,7 +3821,7 @@
         <v>3342</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>714766759</v>
+        <v>275714766759</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>5233147</v>
@@ -3573,8 +3901,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
